--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Prok2-Prokr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Prok2-Prokr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Prok2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,40 +549,40 @@
         <v>0.391293</v>
       </c>
       <c r="I2">
-        <v>0.01088005056575189</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="J2">
-        <v>0.0108800505657519</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.088579666666667</v>
+        <v>0.3997403333333334</v>
       </c>
       <c r="N2">
-        <v>3.265739</v>
+        <v>1.199221</v>
       </c>
       <c r="O2">
-        <v>0.2679416930000997</v>
+        <v>0.04316820571895996</v>
       </c>
       <c r="P2">
-        <v>0.2679416930000997</v>
+        <v>0.04316820571895996</v>
       </c>
       <c r="Q2">
-        <v>0.141984534503</v>
+        <v>0.052138531417</v>
       </c>
       <c r="R2">
-        <v>1.277860810527</v>
+        <v>0.469246782753</v>
       </c>
       <c r="S2">
-        <v>0.002915219168514255</v>
+        <v>0.0004581958785140323</v>
       </c>
       <c r="T2">
-        <v>0.002915219168514255</v>
+        <v>0.0004581958785140323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>0.391293</v>
       </c>
       <c r="I3">
-        <v>0.01088005056575189</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="J3">
-        <v>0.0108800505657519</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>3.88959</v>
       </c>
       <c r="O3">
-        <v>0.3191263385335624</v>
+        <v>0.14001307622399</v>
       </c>
       <c r="P3">
-        <v>0.3191263385335625</v>
+        <v>0.14001307622399</v>
       </c>
       <c r="Q3">
         <v>0.16910770443</v>
@@ -641,10 +641,10 @@
         <v>1.52196933987</v>
       </c>
       <c r="S3">
-        <v>0.003472110700108416</v>
+        <v>0.001486126499710558</v>
       </c>
       <c r="T3">
-        <v>0.003472110700108417</v>
+        <v>0.001486126499710558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -673,10 +673,10 @@
         <v>0.391293</v>
       </c>
       <c r="I4">
-        <v>0.01088005056575189</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="J4">
-        <v>0.0108800505657519</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.003464333333333</v>
+        <v>1.446115</v>
       </c>
       <c r="N4">
-        <v>3.010393</v>
+        <v>4.338345</v>
       </c>
       <c r="O4">
-        <v>0.2469915069807015</v>
+        <v>0.1561668528484919</v>
       </c>
       <c r="P4">
-        <v>0.2469915069807015</v>
+        <v>0.156166852848492</v>
       </c>
       <c r="Q4">
-        <v>0.130882856461</v>
+        <v>0.188618225565</v>
       </c>
       <c r="R4">
-        <v>1.177945708149</v>
+        <v>1.697564030085</v>
       </c>
       <c r="S4">
-        <v>0.002687280085261294</v>
+        <v>0.001657585881644801</v>
       </c>
       <c r="T4">
-        <v>0.002687280085261294</v>
+        <v>0.001657585881644801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,40 +735,40 @@
         <v>0.391293</v>
       </c>
       <c r="I5">
-        <v>0.01088005056575189</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="J5">
-        <v>0.0108800505657519</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03653133333333334</v>
+        <v>0.2562553333333333</v>
       </c>
       <c r="N5">
-        <v>0.109594</v>
+        <v>0.7687660000000001</v>
       </c>
       <c r="O5">
-        <v>0.008991778553844299</v>
+        <v>0.02767317186552101</v>
       </c>
       <c r="P5">
-        <v>0.008991778553844299</v>
+        <v>0.02767317186552102</v>
       </c>
       <c r="Q5">
-        <v>0.004764818338</v>
+        <v>0.033423639382</v>
       </c>
       <c r="R5">
-        <v>0.04288336504200001</v>
+        <v>0.300812754438</v>
       </c>
       <c r="S5">
-        <v>9.783100534186941E-05</v>
+        <v>0.0002937285227174295</v>
       </c>
       <c r="T5">
-        <v>9.783100534186942E-05</v>
+        <v>0.0002937285227174296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +797,10 @@
         <v>0.391293</v>
       </c>
       <c r="I6">
-        <v>0.01088005056575189</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="J6">
-        <v>0.0108800505657519</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.490983</v>
+        <v>0.7180423333333333</v>
       </c>
       <c r="N6">
-        <v>1.472949</v>
+        <v>2.154127</v>
       </c>
       <c r="O6">
-        <v>0.1208499665046116</v>
+        <v>0.07754183547550123</v>
       </c>
       <c r="P6">
-        <v>0.1208499665046116</v>
+        <v>0.07754183547550123</v>
       </c>
       <c r="Q6">
-        <v>0.064039403673</v>
+        <v>0.093654979579</v>
       </c>
       <c r="R6">
-        <v>0.5763546330570001</v>
+        <v>0.8428948162109999</v>
       </c>
       <c r="S6">
-        <v>0.001314853746439597</v>
+        <v>0.0008230443873112602</v>
       </c>
       <c r="T6">
-        <v>0.001314853746439597</v>
+        <v>0.0008230443873112602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +859,40 @@
         <v>0.391293</v>
       </c>
       <c r="I7">
-        <v>0.01088005056575189</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="J7">
-        <v>0.0108800505657519</v>
+        <v>0.01061419790058097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.14666</v>
+        <v>5.143380666666666</v>
       </c>
       <c r="N7">
-        <v>0.43998</v>
+        <v>15.430142</v>
       </c>
       <c r="O7">
-        <v>0.03609871642718045</v>
+        <v>0.5554368578675358</v>
       </c>
       <c r="P7">
-        <v>0.03609871642718045</v>
+        <v>0.5554368578675359</v>
       </c>
       <c r="Q7">
-        <v>0.01912901046</v>
+        <v>0.670856283734</v>
       </c>
       <c r="R7">
-        <v>0.17216109414</v>
+        <v>6.037706553606</v>
       </c>
       <c r="S7">
-        <v>0.0003927558600864619</v>
+        <v>0.00589551673068289</v>
       </c>
       <c r="T7">
-        <v>0.000392755860086462</v>
+        <v>0.005895516730682892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.85765666666667</v>
+        <v>12.078888</v>
       </c>
       <c r="H8">
-        <v>35.57297000000001</v>
+        <v>36.236664</v>
       </c>
       <c r="I8">
-        <v>0.9891199494342481</v>
+        <v>0.9829542643309697</v>
       </c>
       <c r="J8">
-        <v>0.9891199494342482</v>
+        <v>0.9829542643309698</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.088579666666667</v>
+        <v>0.3997403333333334</v>
       </c>
       <c r="N8">
-        <v>3.265739</v>
+        <v>1.199221</v>
       </c>
       <c r="O8">
-        <v>0.2679416930000997</v>
+        <v>0.04316820571895996</v>
       </c>
       <c r="P8">
-        <v>0.2679416930000997</v>
+        <v>0.04316820571895996</v>
       </c>
       <c r="Q8">
-        <v>12.90800394164778</v>
+        <v>4.828418715416</v>
       </c>
       <c r="R8">
-        <v>116.17203547483</v>
+        <v>43.45576843874401</v>
       </c>
       <c r="S8">
-        <v>0.2650264738315854</v>
+        <v>0.04243237189496825</v>
       </c>
       <c r="T8">
-        <v>0.2650264738315855</v>
+        <v>0.04243237189496825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.85765666666667</v>
+        <v>12.078888</v>
       </c>
       <c r="H9">
-        <v>35.57297000000001</v>
+        <v>36.236664</v>
       </c>
       <c r="I9">
-        <v>0.9891199494342481</v>
+        <v>0.9829542643309697</v>
       </c>
       <c r="J9">
-        <v>0.9891199494342482</v>
+        <v>0.9829542643309698</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.88959</v>
       </c>
       <c r="O9">
-        <v>0.3191263385335624</v>
+        <v>0.14001307622399</v>
       </c>
       <c r="P9">
-        <v>0.3191263385335625</v>
+        <v>0.14001307622399</v>
       </c>
       <c r="Q9">
-        <v>15.37380759803334</v>
+        <v>15.66064065864</v>
       </c>
       <c r="R9">
-        <v>138.3642683823</v>
+        <v>140.94576592776</v>
       </c>
       <c r="S9">
-        <v>0.315654227833454</v>
+        <v>0.137626450336468</v>
       </c>
       <c r="T9">
-        <v>0.3156542278334541</v>
+        <v>0.1376264503364681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.85765666666667</v>
+        <v>12.078888</v>
       </c>
       <c r="H10">
-        <v>35.57297000000001</v>
+        <v>36.236664</v>
       </c>
       <c r="I10">
-        <v>0.9891199494342481</v>
+        <v>0.9829542643309697</v>
       </c>
       <c r="J10">
-        <v>0.9891199494342482</v>
+        <v>0.9829542643309698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.003464333333333</v>
+        <v>1.446115</v>
       </c>
       <c r="N10">
-        <v>3.010393</v>
+        <v>4.338345</v>
       </c>
       <c r="O10">
-        <v>0.2469915069807015</v>
+        <v>0.1561668528484919</v>
       </c>
       <c r="P10">
-        <v>0.2469915069807015</v>
+        <v>0.156166852848492</v>
       </c>
       <c r="Q10">
-        <v>11.89873554191222</v>
+        <v>17.46746112012</v>
       </c>
       <c r="R10">
-        <v>107.08861987721</v>
+        <v>157.20715008108</v>
       </c>
       <c r="S10">
-        <v>0.2443042268954402</v>
+        <v>0.1535048739545722</v>
       </c>
       <c r="T10">
-        <v>0.2443042268954402</v>
+        <v>0.1535048739545722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.85765666666667</v>
+        <v>12.078888</v>
       </c>
       <c r="H11">
-        <v>35.57297000000001</v>
+        <v>36.236664</v>
       </c>
       <c r="I11">
-        <v>0.9891199494342481</v>
+        <v>0.9829542643309697</v>
       </c>
       <c r="J11">
-        <v>0.9891199494342482</v>
+        <v>0.9829542643309698</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03653133333333334</v>
+        <v>0.2562553333333333</v>
       </c>
       <c r="N11">
-        <v>0.109594</v>
+        <v>0.7687660000000001</v>
       </c>
       <c r="O11">
-        <v>0.008991778553844299</v>
+        <v>0.02767317186552101</v>
       </c>
       <c r="P11">
-        <v>0.008991778553844299</v>
+        <v>0.02767317186552102</v>
       </c>
       <c r="Q11">
-        <v>0.4331760082422224</v>
+        <v>3.095279470736</v>
       </c>
       <c r="R11">
-        <v>3.898584074180001</v>
+        <v>27.85751523662401</v>
       </c>
       <c r="S11">
-        <v>0.00889394754850243</v>
+        <v>0.02720146229277769</v>
       </c>
       <c r="T11">
-        <v>0.00889394754850243</v>
+        <v>0.0272014622927777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.85765666666667</v>
+        <v>12.078888</v>
       </c>
       <c r="H12">
-        <v>35.57297000000001</v>
+        <v>36.236664</v>
       </c>
       <c r="I12">
-        <v>0.9891199494342481</v>
+        <v>0.9829542643309697</v>
       </c>
       <c r="J12">
-        <v>0.9891199494342482</v>
+        <v>0.9829542643309698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.490983</v>
+        <v>0.7180423333333333</v>
       </c>
       <c r="N12">
-        <v>1.472949</v>
+        <v>2.154127</v>
       </c>
       <c r="O12">
-        <v>0.1208499665046116</v>
+        <v>0.07754183547550123</v>
       </c>
       <c r="P12">
-        <v>0.1208499665046116</v>
+        <v>0.07754183547550123</v>
       </c>
       <c r="Q12">
-        <v>5.821907843170001</v>
+        <v>8.673152923592001</v>
       </c>
       <c r="R12">
-        <v>52.39717058853001</v>
+        <v>78.05837631232801</v>
       </c>
       <c r="S12">
-        <v>0.119535112758172</v>
+        <v>0.07622007784469439</v>
       </c>
       <c r="T12">
-        <v>0.119535112758172</v>
+        <v>0.07622007784469439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.078888</v>
+      </c>
+      <c r="H13">
+        <v>36.236664</v>
+      </c>
+      <c r="I13">
+        <v>0.9829542643309697</v>
+      </c>
+      <c r="J13">
+        <v>0.9829542643309698</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.143380666666666</v>
+      </c>
+      <c r="N13">
+        <v>15.430142</v>
+      </c>
+      <c r="O13">
+        <v>0.5554368578675358</v>
+      </c>
+      <c r="P13">
+        <v>0.5554368578675359</v>
+      </c>
+      <c r="Q13">
+        <v>62.126319014032</v>
+      </c>
+      <c r="R13">
+        <v>559.136871126288</v>
+      </c>
+      <c r="S13">
+        <v>0.545969028007489</v>
+      </c>
+      <c r="T13">
+        <v>0.5459690280074893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07903300000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.237099</v>
+      </c>
+      <c r="I14">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="J14">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3997403333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.199221</v>
+      </c>
+      <c r="O14">
+        <v>0.04316820571895996</v>
+      </c>
+      <c r="P14">
+        <v>0.04316820571895996</v>
+      </c>
+      <c r="Q14">
+        <v>0.03159267776433334</v>
+      </c>
+      <c r="R14">
+        <v>0.284334099879</v>
+      </c>
+      <c r="S14">
+        <v>0.0002776379454776818</v>
+      </c>
+      <c r="T14">
+        <v>0.0002776379454776818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07903300000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.237099</v>
+      </c>
+      <c r="I15">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="J15">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.29653</v>
+      </c>
+      <c r="N15">
+        <v>3.88959</v>
+      </c>
+      <c r="O15">
+        <v>0.14001307622399</v>
+      </c>
+      <c r="P15">
+        <v>0.14001307622399</v>
+      </c>
+      <c r="Q15">
+        <v>0.10246865549</v>
+      </c>
+      <c r="R15">
+        <v>0.92221789941</v>
+      </c>
+      <c r="S15">
+        <v>0.0009004993878113678</v>
+      </c>
+      <c r="T15">
+        <v>0.000900499387811368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07903300000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.237099</v>
+      </c>
+      <c r="I16">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="J16">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.446115</v>
+      </c>
+      <c r="N16">
+        <v>4.338345</v>
+      </c>
+      <c r="O16">
+        <v>0.1561668528484919</v>
+      </c>
+      <c r="P16">
+        <v>0.156166852848492</v>
+      </c>
+      <c r="Q16">
+        <v>0.114290806795</v>
+      </c>
+      <c r="R16">
+        <v>1.028617261155</v>
+      </c>
+      <c r="S16">
+        <v>0.001004393012274946</v>
+      </c>
+      <c r="T16">
+        <v>0.001004393012274947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.85765666666667</v>
-      </c>
-      <c r="H13">
-        <v>35.57297000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.9891199494342481</v>
-      </c>
-      <c r="J13">
-        <v>0.9891199494342482</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M13">
-        <v>0.14666</v>
-      </c>
-      <c r="N13">
-        <v>0.43998</v>
-      </c>
-      <c r="O13">
-        <v>0.03609871642718045</v>
-      </c>
-      <c r="P13">
-        <v>0.03609871642718045</v>
-      </c>
-      <c r="Q13">
-        <v>1.739043926733334</v>
-      </c>
-      <c r="R13">
-        <v>15.6513953406</v>
-      </c>
-      <c r="S13">
-        <v>0.03570596056709399</v>
-      </c>
-      <c r="T13">
-        <v>0.03570596056709399</v>
+      <c r="G17">
+        <v>0.07903300000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.237099</v>
+      </c>
+      <c r="I17">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="J17">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2562553333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.7687660000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.02767317186552101</v>
+      </c>
+      <c r="P17">
+        <v>0.02767317186552102</v>
+      </c>
+      <c r="Q17">
+        <v>0.02025262775933333</v>
+      </c>
+      <c r="R17">
+        <v>0.182273649834</v>
+      </c>
+      <c r="S17">
+        <v>0.0001779810500258881</v>
+      </c>
+      <c r="T17">
+        <v>0.0001779810500258881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.07903300000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.237099</v>
+      </c>
+      <c r="I18">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="J18">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7180423333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.154127</v>
+      </c>
+      <c r="O18">
+        <v>0.07754183547550123</v>
+      </c>
+      <c r="P18">
+        <v>0.07754183547550123</v>
+      </c>
+      <c r="Q18">
+        <v>0.05674903973033334</v>
+      </c>
+      <c r="R18">
+        <v>0.510741357573</v>
+      </c>
+      <c r="S18">
+        <v>0.0004987132434955711</v>
+      </c>
+      <c r="T18">
+        <v>0.0004987132434955711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.07903300000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.237099</v>
+      </c>
+      <c r="I19">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="J19">
+        <v>0.006431537768449341</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.143380666666666</v>
+      </c>
+      <c r="N19">
+        <v>15.430142</v>
+      </c>
+      <c r="O19">
+        <v>0.5554368578675358</v>
+      </c>
+      <c r="P19">
+        <v>0.5554368578675359</v>
+      </c>
+      <c r="Q19">
+        <v>0.4064968042286667</v>
+      </c>
+      <c r="R19">
+        <v>3.658471238058</v>
+      </c>
+      <c r="S19">
+        <v>0.003572313129363885</v>
+      </c>
+      <c r="T19">
+        <v>0.003572313129363886</v>
       </c>
     </row>
   </sheetData>
